--- a/Data/Modeling Stage/Results/IMS/Non temporal models/ensemble_models_no_assign_results_Date_threshold_25_1_replicas_SMOTE.xlsx
+++ b/Data/Modeling Stage/Results/IMS/Non temporal models/ensemble_models_no_assign_results_Date_threshold_25_1_replicas_SMOTE.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="186">
   <si>
     <t>Baseline - Majority Class</t>
   </si>
@@ -79,376 +79,376 @@
     <t>0.1+/-0.3</t>
   </si>
   <si>
+    <t>0.001+/-0.0</t>
+  </si>
+  <si>
+    <t>0.877+/-0.002</t>
+  </si>
+  <si>
+    <t>0.807+/-0.0</t>
+  </si>
+  <si>
+    <t>0.712</t>
+  </si>
+  <si>
+    <t>0.855+/-0.002</t>
+  </si>
+  <si>
+    <t>0.79+/-0.011</t>
+  </si>
+  <si>
+    <t>0.342</t>
+  </si>
+  <si>
+    <t>0.909+/-0.004</t>
+  </si>
+  <si>
+    <t>0.835+/-0.013</t>
+  </si>
+  <si>
+    <t>0.461</t>
+  </si>
+  <si>
+    <t>8.96+/-0.274</t>
+  </si>
+  <si>
+    <t>0.749+/-0.002</t>
+  </si>
+  <si>
+    <t>0.738+/-0.0</t>
+  </si>
+  <si>
+    <t>0.671</t>
+  </si>
+  <si>
+    <t>0.746+/-0.003</t>
+  </si>
+  <si>
+    <t>0.735+/-0.014</t>
+  </si>
+  <si>
+    <t>0.296</t>
+  </si>
+  <si>
+    <t>0.754+/-0.004</t>
+  </si>
+  <si>
+    <t>0.745+/-0.021</t>
+  </si>
+  <si>
+    <t>0.459</t>
+  </si>
+  <si>
+    <t>1.815+/-0.106</t>
+  </si>
+  <si>
+    <t>0.861+/-0.002</t>
+  </si>
+  <si>
+    <t>0.838+/-0.0</t>
+  </si>
+  <si>
+    <t>0.756</t>
+  </si>
+  <si>
+    <t>0.892+/-0.003</t>
+  </si>
+  <si>
+    <t>0.869+/-0.011</t>
+  </si>
+  <si>
+    <t>0.354</t>
+  </si>
+  <si>
+    <t>0.822+/-0.003</t>
+  </si>
+  <si>
+    <t>0.795+/-0.021</t>
+  </si>
+  <si>
+    <t>0.256</t>
+  </si>
+  <si>
+    <t>7.021+/-0.162</t>
+  </si>
+  <si>
+    <t>0.72+/-0.004</t>
+  </si>
+  <si>
+    <t>0.692+/-0.0</t>
+  </si>
+  <si>
+    <t>0.644</t>
+  </si>
+  <si>
+    <t>0.72+/-0.007</t>
+  </si>
+  <si>
+    <t>0.692+/-0.016</t>
+  </si>
+  <si>
+    <t>0.282</t>
+  </si>
+  <si>
+    <t>0.72+/-0.015</t>
+  </si>
+  <si>
+    <t>0.693+/-0.012</t>
+  </si>
+  <si>
+    <t>0.496</t>
+  </si>
+  <si>
+    <t>0.805+/-0.03</t>
+  </si>
+  <si>
+    <t>0.85</t>
+  </si>
+  <si>
+    <t>0.749</t>
+  </si>
+  <si>
+    <t>0.869+/-0.004</t>
+  </si>
+  <si>
+    <t>0.821+/-0.009</t>
+  </si>
+  <si>
+    <t>0.279</t>
+  </si>
+  <si>
+    <t>0.923+/-0.003</t>
+  </si>
+  <si>
+    <t>0.865+/-0.012</t>
+  </si>
+  <si>
+    <t>0.427</t>
+  </si>
+  <si>
+    <t>9.761+/-0.356</t>
+  </si>
+  <si>
+    <t>0.766+/-0.003</t>
+  </si>
+  <si>
+    <t>0.756+/-0.0</t>
+  </si>
+  <si>
+    <t>0.716</t>
+  </si>
+  <si>
+    <t>0.758+/-0.003</t>
+  </si>
+  <si>
+    <t>0.749+/-0.01</t>
+  </si>
+  <si>
+    <t>0.261</t>
+  </si>
+  <si>
+    <t>0.781+/-0.005</t>
+  </si>
+  <si>
+    <t>0.77+/-0.02</t>
+  </si>
+  <si>
+    <t>0.487</t>
+  </si>
+  <si>
+    <t>2.155+/-0.093</t>
+  </si>
+  <si>
+    <t>0.889+/-0.001</t>
+  </si>
+  <si>
+    <t>0.872+/-0.0</t>
+  </si>
+  <si>
+    <t>0.809</t>
+  </si>
+  <si>
+    <t>0.915+/-0.003</t>
+  </si>
+  <si>
+    <t>0.897+/-0.008</t>
+  </si>
+  <si>
+    <t>0.338</t>
+  </si>
+  <si>
+    <t>0.857+/-0.002</t>
+  </si>
+  <si>
+    <t>0.84+/-0.013</t>
+  </si>
+  <si>
+    <t>0.283</t>
+  </si>
+  <si>
+    <t>8.136+/-0.862</t>
+  </si>
+  <si>
+    <t>0.725+/-0.004</t>
+  </si>
+  <si>
+    <t>0.703+/-0.0</t>
+  </si>
+  <si>
+    <t>0.704</t>
+  </si>
+  <si>
+    <t>0.749+/-0.005</t>
+  </si>
+  <si>
+    <t>0.724+/-0.017</t>
+  </si>
+  <si>
+    <t>0.253</t>
+  </si>
+  <si>
+    <t>0.679+/-0.008</t>
+  </si>
+  <si>
+    <t>0.655+/-0.022</t>
+  </si>
+  <si>
+    <t>0.498</t>
+  </si>
+  <si>
+    <t>0.887+/-0.027</t>
+  </si>
+  <si>
+    <t>0.723</t>
+  </si>
+  <si>
+    <t>0.15+/-0.229</t>
+  </si>
+  <si>
+    <t>0.3+/-0.458</t>
+  </si>
+  <si>
     <t>0.0+/-0.0</t>
   </si>
   <si>
-    <t>0.879+/-0.002</t>
-  </si>
-  <si>
-    <t>0.807+/-0.0</t>
-  </si>
-  <si>
-    <t>0.708</t>
-  </si>
-  <si>
-    <t>0.859+/-0.003</t>
-  </si>
-  <si>
-    <t>0.793+/-0.012</t>
-  </si>
-  <si>
-    <t>0.332</t>
-  </si>
-  <si>
-    <t>0.907+/-0.003</t>
-  </si>
-  <si>
-    <t>0.831+/-0.013</t>
-  </si>
-  <si>
-    <t>0.445</t>
-  </si>
-  <si>
-    <t>8.297+/-0.094</t>
-  </si>
-  <si>
-    <t>0.749+/-0.003</t>
-  </si>
-  <si>
-    <t>0.733+/-0.0</t>
-  </si>
-  <si>
-    <t>0.681</t>
-  </si>
-  <si>
-    <t>0.744+/-0.003</t>
-  </si>
-  <si>
-    <t>0.729+/-0.01</t>
-  </si>
-  <si>
-    <t>0.31</t>
-  </si>
-  <si>
-    <t>0.757+/-0.005</t>
-  </si>
-  <si>
-    <t>0.741+/-0.015</t>
-  </si>
-  <si>
-    <t>0.475</t>
-  </si>
-  <si>
-    <t>1.703+/-0.051</t>
-  </si>
-  <si>
-    <t>0.861+/-0.002</t>
-  </si>
-  <si>
-    <t>0.837+/-0.0</t>
-  </si>
-  <si>
-    <t>0.746</t>
-  </si>
-  <si>
-    <t>0.89+/-0.003</t>
-  </si>
-  <si>
-    <t>0.865+/-0.008</t>
-  </si>
-  <si>
-    <t>0.338</t>
-  </si>
-  <si>
-    <t>0.823+/-0.003</t>
-  </si>
-  <si>
-    <t>0.798+/-0.019</t>
-  </si>
-  <si>
-    <t>0.269</t>
-  </si>
-  <si>
-    <t>6.968+/-0.073</t>
-  </si>
-  <si>
-    <t>0.715+/-0.003</t>
-  </si>
-  <si>
-    <t>0.691+/-0.0</t>
-  </si>
-  <si>
-    <t>0.647</t>
-  </si>
-  <si>
-    <t>0.716+/-0.007</t>
-  </si>
-  <si>
-    <t>0.692+/-0.018</t>
-  </si>
-  <si>
-    <t>0.289</t>
-  </si>
-  <si>
-    <t>0.712+/-0.011</t>
-  </si>
-  <si>
-    <t>0.688+/-0.024</t>
-  </si>
-  <si>
-    <t>0.515</t>
-  </si>
-  <si>
-    <t>0.758+/-0.039</t>
-  </si>
-  <si>
-    <t>0.85</t>
-  </si>
-  <si>
-    <t>0.894+/-0.003</t>
-  </si>
-  <si>
-    <t>0.841+/-0.0</t>
-  </si>
-  <si>
-    <t>0.759</t>
-  </si>
-  <si>
-    <t>0.875+/-0.004</t>
-  </si>
-  <si>
-    <t>0.824+/-0.007</t>
-  </si>
-  <si>
-    <t>0.288</t>
-  </si>
-  <si>
-    <t>0.919+/-0.002</t>
-  </si>
-  <si>
-    <t>0.867+/-0.011</t>
-  </si>
-  <si>
-    <t>0.412</t>
-  </si>
-  <si>
-    <t>8.907+/-0.08</t>
-  </si>
-  <si>
-    <t>0.789+/-0.003</t>
-  </si>
-  <si>
-    <t>0.777+/-0.0</t>
-  </si>
-  <si>
-    <t>0.752</t>
-  </si>
-  <si>
-    <t>0.794+/-0.003</t>
-  </si>
-  <si>
-    <t>0.782+/-0.01</t>
-  </si>
-  <si>
-    <t>0.284</t>
-  </si>
-  <si>
-    <t>0.78+/-0.006</t>
-  </si>
-  <si>
-    <t>0.768+/-0.015</t>
-  </si>
-  <si>
-    <t>0.43</t>
-  </si>
-  <si>
-    <t>2.005+/-0.039</t>
-  </si>
-  <si>
-    <t>0.893+/-0.002</t>
-  </si>
-  <si>
-    <t>0.875+/-0.0</t>
-  </si>
-  <si>
-    <t>0.815</t>
-  </si>
-  <si>
-    <t>0.923+/-0.003</t>
-  </si>
-  <si>
-    <t>0.903+/-0.01</t>
-  </si>
-  <si>
-    <t>0.343</t>
-  </si>
-  <si>
-    <t>0.858+/-0.002</t>
-  </si>
-  <si>
-    <t>0.841+/-0.01</t>
-  </si>
-  <si>
-    <t>0.258</t>
-  </si>
-  <si>
-    <t>8.368+/-0.178</t>
-  </si>
-  <si>
-    <t>0.732+/-0.006</t>
-  </si>
-  <si>
-    <t>0.708+/-0.0</t>
-  </si>
-  <si>
-    <t>0.714</t>
-  </si>
-  <si>
-    <t>0.758+/-0.006</t>
-  </si>
-  <si>
-    <t>0.733+/-0.02</t>
-  </si>
-  <si>
-    <t>0.253</t>
-  </si>
-  <si>
-    <t>0.684+/-0.01</t>
-  </si>
-  <si>
-    <t>0.656+/-0.018</t>
-  </si>
-  <si>
-    <t>0.466</t>
-  </si>
-  <si>
-    <t>0.768+/-0.029</t>
-  </si>
-  <si>
-    <t>0.723</t>
-  </si>
-  <si>
-    <t>0.15+/-0.229</t>
-  </si>
-  <si>
-    <t>0.3+/-0.458</t>
-  </si>
-  <si>
-    <t>0.87+/-0.002</t>
-  </si>
-  <si>
-    <t>0.746+/-0.0</t>
-  </si>
-  <si>
-    <t>0.666</t>
-  </si>
-  <si>
-    <t>0.873+/-0.004</t>
-  </si>
-  <si>
-    <t>0.75+/-0.011</t>
-  </si>
-  <si>
-    <t>0.396</t>
-  </si>
-  <si>
-    <t>0.866+/-0.003</t>
-  </si>
-  <si>
-    <t>0.739+/-0.017</t>
-  </si>
-  <si>
-    <t>0.392</t>
-  </si>
-  <si>
-    <t>7.433+/-0.045</t>
-  </si>
-  <si>
-    <t>0.689+/-0.003</t>
-  </si>
-  <si>
-    <t>0.674+/-0.0</t>
-  </si>
-  <si>
-    <t>0.628</t>
-  </si>
-  <si>
-    <t>0.694+/-0.003</t>
-  </si>
-  <si>
-    <t>0.677+/-0.008</t>
-  </si>
-  <si>
-    <t>0.364</t>
-  </si>
-  <si>
-    <t>0.677+/-0.007</t>
-  </si>
-  <si>
-    <t>0.667+/-0.019</t>
-  </si>
-  <si>
-    <t>0.458</t>
-  </si>
-  <si>
-    <t>1.517+/-0.072</t>
-  </si>
-  <si>
-    <t>0.812+/-0.001</t>
-  </si>
-  <si>
-    <t>0.769+/-0.0</t>
-  </si>
-  <si>
-    <t>0.702</t>
-  </si>
-  <si>
-    <t>0.882+/-0.003</t>
-  </si>
-  <si>
-    <t>0.831+/-0.016</t>
-  </si>
-  <si>
-    <t>0.436</t>
-  </si>
-  <si>
-    <t>0.72+/-0.002</t>
-  </si>
-  <si>
-    <t>0.676+/-0.015</t>
-  </si>
-  <si>
-    <t>0.266</t>
-  </si>
-  <si>
-    <t>6.042+/-0.069</t>
-  </si>
-  <si>
-    <t>0.682+/-0.003</t>
+    <t>0.878+/-0.003</t>
+  </si>
+  <si>
+    <t>0.754+/-0.0</t>
+  </si>
+  <si>
+    <t>0.678</t>
+  </si>
+  <si>
+    <t>0.889+/-0.006</t>
+  </si>
+  <si>
+    <t>0.762+/-0.018</t>
+  </si>
+  <si>
+    <t>0.407</t>
+  </si>
+  <si>
+    <t>0.863+/-0.003</t>
+  </si>
+  <si>
+    <t>0.738+/-0.018</t>
+  </si>
+  <si>
+    <t>0.359</t>
+  </si>
+  <si>
+    <t>7.826+/-0.139</t>
+  </si>
+  <si>
+    <t>0.708+/-0.005</t>
+  </si>
+  <si>
+    <t>0.693+/-0.0</t>
+  </si>
+  <si>
+    <t>0.656</t>
+  </si>
+  <si>
+    <t>0.724+/-0.005</t>
+  </si>
+  <si>
+    <t>0.707+/-0.019</t>
+  </si>
+  <si>
+    <t>0.381</t>
+  </si>
+  <si>
+    <t>0.674+/-0.008</t>
+  </si>
+  <si>
+    <t>0.661+/-0.02</t>
+  </si>
+  <si>
+    <t>0.386</t>
+  </si>
+  <si>
+    <t>1.692+/-0.034</t>
+  </si>
+  <si>
+    <t>0.814+/-0.003</t>
+  </si>
+  <si>
+    <t>0.775+/-0.0</t>
+  </si>
+  <si>
+    <t>0.705</t>
+  </si>
+  <si>
+    <t>0.899+/-0.006</t>
+  </si>
+  <si>
+    <t>0.849+/-0.018</t>
+  </si>
+  <si>
+    <t>0.438</t>
+  </si>
+  <si>
+    <t>0.706+/-0.004</t>
+  </si>
+  <si>
+    <t>0.67+/-0.018</t>
+  </si>
+  <si>
+    <t>0.235</t>
+  </si>
+  <si>
+    <t>6.777+/-0.062</t>
+  </si>
+  <si>
+    <t>0.679+/-0.004</t>
   </si>
   <si>
     <t>0.635+/-0.0</t>
   </si>
   <si>
-    <t>0.575</t>
-  </si>
-  <si>
-    <t>0.662+/-0.003</t>
-  </si>
-  <si>
-    <t>0.62+/-0.008</t>
-  </si>
-  <si>
-    <t>0.341</t>
-  </si>
-  <si>
-    <t>0.743+/-0.007</t>
-  </si>
-  <si>
-    <t>0.698+/-0.009</t>
-  </si>
-  <si>
-    <t>0.669+/-0.026</t>
+    <t>0.581</t>
+  </si>
+  <si>
+    <t>0.661+/-0.004</t>
+  </si>
+  <si>
+    <t>0.621+/-0.011</t>
+  </si>
+  <si>
+    <t>0.345</t>
+  </si>
+  <si>
+    <t>0.733+/-0.005</t>
+  </si>
+  <si>
+    <t>0.693+/-0.006</t>
+  </si>
+  <si>
+    <t>0.571</t>
+  </si>
+  <si>
+    <t>0.774+/-0.035</t>
   </si>
   <si>
     <t>0.692</t>
@@ -460,124 +460,121 @@
     <t>0.5+/-0.5</t>
   </si>
   <si>
-    <t>0.873+/-0.002</t>
-  </si>
-  <si>
-    <t>0.721+/-0.0</t>
-  </si>
-  <si>
-    <t>0.645</t>
-  </si>
-  <si>
-    <t>0.879+/-0.003</t>
-  </si>
-  <si>
-    <t>0.732+/-0.012</t>
-  </si>
-  <si>
-    <t>0.409</t>
-  </si>
-  <si>
-    <t>0.866+/-0.004</t>
-  </si>
-  <si>
-    <t>0.696+/-0.02</t>
-  </si>
-  <si>
-    <t>0.346</t>
-  </si>
-  <si>
-    <t>7.191+/-0.079</t>
-  </si>
-  <si>
-    <t>0.686+/-0.002</t>
-  </si>
-  <si>
-    <t>0.67+/-0.0</t>
-  </si>
-  <si>
-    <t>0.624</t>
-  </si>
-  <si>
-    <t>0.706+/-0.003</t>
-  </si>
-  <si>
-    <t>0.688+/-0.017</t>
-  </si>
-  <si>
-    <t>0.389</t>
-  </si>
-  <si>
-    <t>0.638+/-0.007</t>
-  </si>
-  <si>
-    <t>0.621+/-0.019</t>
-  </si>
-  <si>
-    <t>0.387</t>
-  </si>
-  <si>
-    <t>1.336+/-0.02</t>
-  </si>
-  <si>
-    <t>0.786+/-0.003</t>
-  </si>
-  <si>
-    <t>0.743+/-0.0</t>
-  </si>
-  <si>
-    <t>0.675</t>
-  </si>
-  <si>
-    <t>0.889+/-0.005</t>
-  </si>
-  <si>
-    <t>0.83+/-0.02</t>
-  </si>
-  <si>
-    <t>0.444</t>
-  </si>
-  <si>
-    <t>0.653+/-0.005</t>
-  </si>
-  <si>
-    <t>0.611+/-0.023</t>
-  </si>
-  <si>
-    <t>0.215</t>
-  </si>
-  <si>
-    <t>5.419+/-0.059</t>
-  </si>
-  <si>
-    <t>0.671+/-0.005</t>
-  </si>
-  <si>
-    <t>0.614+/-0.0</t>
-  </si>
-  <si>
-    <t>0.571</t>
-  </si>
-  <si>
-    <t>0.651+/-0.006</t>
-  </si>
-  <si>
-    <t>0.6+/-0.015</t>
-  </si>
-  <si>
-    <t>0.375</t>
-  </si>
-  <si>
-    <t>0.739+/-0.008</t>
-  </si>
-  <si>
-    <t>0.682+/-0.013</t>
-  </si>
-  <si>
-    <t>0.586</t>
-  </si>
-  <si>
-    <t>0.64+/-0.026</t>
+    <t>0.861+/-0.004</t>
+  </si>
+  <si>
+    <t>0.723+/-0.0</t>
+  </si>
+  <si>
+    <t>0.641</t>
+  </si>
+  <si>
+    <t>0.861+/-0.005</t>
+  </si>
+  <si>
+    <t>0.732+/-0.013</t>
+  </si>
+  <si>
+    <t>0.408</t>
+  </si>
+  <si>
+    <t>0.862+/-0.003</t>
+  </si>
+  <si>
+    <t>0.703+/-0.023</t>
+  </si>
+  <si>
+    <t>0.363</t>
+  </si>
+  <si>
+    <t>8.019+/-0.124</t>
+  </si>
+  <si>
+    <t>0.684+/-0.003</t>
+  </si>
+  <si>
+    <t>0.672+/-0.0</t>
+  </si>
+  <si>
+    <t>0.619</t>
+  </si>
+  <si>
+    <t>0.7+/-0.003</t>
+  </si>
+  <si>
+    <t>0.688+/-0.013</t>
+  </si>
+  <si>
+    <t>0.382</t>
+  </si>
+  <si>
+    <t>0.643+/-0.007</t>
+  </si>
+  <si>
+    <t>0.63+/-0.018</t>
+  </si>
+  <si>
+    <t>1.415+/-0.019</t>
+  </si>
+  <si>
+    <t>0.785+/-0.003</t>
+  </si>
+  <si>
+    <t>0.739+/-0.0</t>
+  </si>
+  <si>
+    <t>0.665</t>
+  </si>
+  <si>
+    <t>0.876+/-0.004</t>
+  </si>
+  <si>
+    <t>0.815+/-0.023</t>
+  </si>
+  <si>
+    <t>0.417</t>
+  </si>
+  <si>
+    <t>0.663+/-0.007</t>
+  </si>
+  <si>
+    <t>0.618+/-0.022</t>
+  </si>
+  <si>
+    <t>0.218</t>
+  </si>
+  <si>
+    <t>5.586+/-0.084</t>
+  </si>
+  <si>
+    <t>0.67+/-0.003</t>
+  </si>
+  <si>
+    <t>0.616+/-0.0</t>
+  </si>
+  <si>
+    <t>0.564</t>
+  </si>
+  <si>
+    <t>0.648+/-0.004</t>
+  </si>
+  <si>
+    <t>0.602+/-0.012</t>
+  </si>
+  <si>
+    <t>0.372</t>
+  </si>
+  <si>
+    <t>0.745+/-0.007</t>
+  </si>
+  <si>
+    <t>0.686+/-0.016</t>
+  </si>
+  <si>
+    <t>0.606</t>
+  </si>
+  <si>
+    <t>0.723+/-0.016</t>
   </si>
 </sst>
 </file>
@@ -1196,16 +1193,16 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="D2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1216,16 +1213,16 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="D3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1236,16 +1233,16 @@
         <v>61</v>
       </c>
       <c r="C4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1256,16 +1253,16 @@
         <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1276,16 +1273,16 @@
         <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1296,16 +1293,16 @@
         <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1316,16 +1313,16 @@
         <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1336,16 +1333,16 @@
         <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1356,16 +1353,16 @@
         <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1376,16 +1373,16 @@
         <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F11" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1426,16 +1423,16 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1446,16 +1443,16 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1463,19 +1460,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1483,19 +1480,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1503,19 +1500,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1526,16 +1523,16 @@
         <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1543,19 +1540,19 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1563,19 +1560,19 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1586,16 +1583,16 @@
         <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F10" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1603,16 +1600,16 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>103</v>
       </c>
       <c r="C11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F11" t="s">
         <v>143</v>
@@ -1662,10 +1659,10 @@
         <v>157</v>
       </c>
       <c r="E2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1682,10 +1679,10 @@
         <v>158</v>
       </c>
       <c r="E3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1702,10 +1699,10 @@
         <v>159</v>
       </c>
       <c r="E4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1722,10 +1719,10 @@
         <v>160</v>
       </c>
       <c r="E5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1742,10 +1739,10 @@
         <v>161</v>
       </c>
       <c r="E6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1762,10 +1759,10 @@
         <v>162</v>
       </c>
       <c r="E7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1782,10 +1779,10 @@
         <v>163</v>
       </c>
       <c r="E8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1802,10 +1799,10 @@
         <v>164</v>
       </c>
       <c r="E9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1819,13 +1816,13 @@
         <v>155</v>
       </c>
       <c r="D10" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1833,19 +1830,19 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>103</v>
       </c>
       <c r="C11" t="s">
         <v>156</v>
       </c>
       <c r="D11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Modeling Stage/Results/IMS/Non temporal models/ensemble_models_no_assign_results_Date_threshold_25_1_replicas_SMOTE.xlsx
+++ b/Data/Modeling Stage/Results/IMS/Non temporal models/ensemble_models_no_assign_results_Date_threshold_25_1_replicas_SMOTE.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="226">
   <si>
     <t>Baseline - Majority Class</t>
   </si>
@@ -61,520 +61,640 @@
     <t>Recall Test</t>
   </si>
   <si>
+    <t>AUC - Train</t>
+  </si>
+  <si>
+    <t>AUC - Validation</t>
+  </si>
+  <si>
+    <t>AUC - Test</t>
+  </si>
+  <si>
     <t>Time</t>
   </si>
   <si>
     <t>0.5+/-0.0</t>
   </si>
   <si>
+    <t>0.799+/-0.0</t>
+  </si>
+  <si>
     <t>0.798</t>
   </si>
   <si>
-    <t>0.05+/-0.15</t>
+    <t>0.0+/-0.0</t>
   </si>
   <si>
     <t>0.0</t>
   </si>
   <si>
-    <t>0.1+/-0.3</t>
+    <t>0.5</t>
   </si>
   <si>
     <t>0.001+/-0.0</t>
   </si>
   <si>
-    <t>0.877+/-0.002</t>
-  </si>
-  <si>
-    <t>0.807+/-0.0</t>
-  </si>
-  <si>
-    <t>0.712</t>
-  </si>
-  <si>
-    <t>0.855+/-0.002</t>
-  </si>
-  <si>
-    <t>0.79+/-0.011</t>
-  </si>
-  <si>
-    <t>0.342</t>
-  </si>
-  <si>
-    <t>0.909+/-0.004</t>
-  </si>
-  <si>
-    <t>0.835+/-0.013</t>
-  </si>
-  <si>
-    <t>0.461</t>
-  </si>
-  <si>
-    <t>8.96+/-0.274</t>
-  </si>
-  <si>
-    <t>0.749+/-0.002</t>
-  </si>
-  <si>
-    <t>0.738+/-0.0</t>
-  </si>
-  <si>
-    <t>0.671</t>
-  </si>
-  <si>
-    <t>0.746+/-0.003</t>
-  </si>
-  <si>
-    <t>0.735+/-0.014</t>
-  </si>
-  <si>
-    <t>0.296</t>
-  </si>
-  <si>
-    <t>0.754+/-0.004</t>
-  </si>
-  <si>
-    <t>0.745+/-0.021</t>
-  </si>
-  <si>
-    <t>0.459</t>
-  </si>
-  <si>
-    <t>1.815+/-0.106</t>
-  </si>
-  <si>
-    <t>0.861+/-0.002</t>
-  </si>
-  <si>
-    <t>0.838+/-0.0</t>
-  </si>
-  <si>
-    <t>0.756</t>
-  </si>
-  <si>
-    <t>0.892+/-0.003</t>
-  </si>
-  <si>
-    <t>0.869+/-0.011</t>
-  </si>
-  <si>
-    <t>0.354</t>
-  </si>
-  <si>
-    <t>0.822+/-0.003</t>
-  </si>
-  <si>
-    <t>0.795+/-0.021</t>
-  </si>
-  <si>
-    <t>0.256</t>
-  </si>
-  <si>
-    <t>7.021+/-0.162</t>
-  </si>
-  <si>
-    <t>0.72+/-0.004</t>
+    <t>0.885+/-0.005</t>
+  </si>
+  <si>
+    <t>0.728+/-0.0</t>
+  </si>
+  <si>
+    <t>0.801</t>
+  </si>
+  <si>
+    <t>0.864+/-0.007</t>
+  </si>
+  <si>
+    <t>0.372+/-0.021</t>
+  </si>
+  <si>
+    <t>0.591</t>
+  </si>
+  <si>
+    <t>0.914+/-0.006</t>
+  </si>
+  <si>
+    <t>0.506+/-0.042</t>
+  </si>
+  <si>
+    <t>0.035</t>
+  </si>
+  <si>
+    <t>0.947+/-0.003</t>
+  </si>
+  <si>
+    <t>0.715+/-0.021</t>
+  </si>
+  <si>
+    <t>0.693</t>
+  </si>
+  <si>
+    <t>12.459+/-0.125</t>
+  </si>
+  <si>
+    <t>0.749+/-0.004</t>
+  </si>
+  <si>
+    <t>0.689+/-0.0</t>
+  </si>
+  <si>
+    <t>0.79</t>
+  </si>
+  <si>
+    <t>0.744+/-0.006</t>
+  </si>
+  <si>
+    <t>0.326+/-0.015</t>
+  </si>
+  <si>
+    <t>0.358</t>
+  </si>
+  <si>
+    <t>0.759+/-0.007</t>
+  </si>
+  <si>
+    <t>0.512+/-0.049</t>
+  </si>
+  <si>
+    <t>0.051</t>
+  </si>
+  <si>
+    <t>0.828+/-0.004</t>
+  </si>
+  <si>
+    <t>0.681+/-0.023</t>
+  </si>
+  <si>
+    <t>0.665</t>
+  </si>
+  <si>
+    <t>2.566+/-0.076</t>
+  </si>
+  <si>
+    <t>0.864+/-0.002</t>
+  </si>
+  <si>
+    <t>0.77+/-0.0</t>
+  </si>
+  <si>
+    <t>0.896+/-0.002</t>
+  </si>
+  <si>
+    <t>0.41+/-0.028</t>
+  </si>
+  <si>
+    <t>0.492</t>
+  </si>
+  <si>
+    <t>0.823+/-0.004</t>
+  </si>
+  <si>
+    <t>0.327+/-0.045</t>
+  </si>
+  <si>
+    <t>0.083</t>
+  </si>
+  <si>
+    <t>0.936+/-0.001</t>
+  </si>
+  <si>
+    <t>0.703+/-0.025</t>
+  </si>
+  <si>
+    <t>0.698</t>
+  </si>
+  <si>
+    <t>10.243+/-0.153</t>
+  </si>
+  <si>
+    <t>0.725+/-0.007</t>
+  </si>
+  <si>
+    <t>0.672+/-0.0</t>
+  </si>
+  <si>
+    <t>0.727+/-0.012</t>
+  </si>
+  <si>
+    <t>0.318+/-0.026</t>
+  </si>
+  <si>
+    <t>0.723+/-0.028</t>
+  </si>
+  <si>
+    <t>0.556+/-0.073</t>
+  </si>
+  <si>
+    <t>0.016</t>
+  </si>
+  <si>
+    <t>0.796+/-0.004</t>
+  </si>
+  <si>
+    <t>0.695+/-0.028</t>
+  </si>
+  <si>
+    <t>0.669</t>
+  </si>
+  <si>
+    <t>1.289+/-0.05</t>
+  </si>
+  <si>
+    <t>0.85+/-0.0</t>
+  </si>
+  <si>
+    <t>0.85</t>
+  </si>
+  <si>
+    <t>0.899+/-0.003</t>
+  </si>
+  <si>
+    <t>0.766+/-0.0</t>
+  </si>
+  <si>
+    <t>0.849</t>
+  </si>
+  <si>
+    <t>0.875+/-0.006</t>
+  </si>
+  <si>
+    <t>0.314+/-0.02</t>
+  </si>
+  <si>
+    <t>0.462</t>
+  </si>
+  <si>
+    <t>0.931+/-0.005</t>
+  </si>
+  <si>
+    <t>0.47+/-0.042</t>
+  </si>
+  <si>
+    <t>0.022</t>
+  </si>
+  <si>
+    <t>0.955+/-0.001</t>
+  </si>
+  <si>
+    <t>0.725+/-0.016</t>
+  </si>
+  <si>
+    <t>0.703</t>
+  </si>
+  <si>
+    <t>13.486+/-0.104</t>
+  </si>
+  <si>
+    <t>0.769+/-0.003</t>
+  </si>
+  <si>
+    <t>0.712+/-0.0</t>
+  </si>
+  <si>
+    <t>0.851</t>
+  </si>
+  <si>
+    <t>0.762+/-0.004</t>
+  </si>
+  <si>
+    <t>0.261+/-0.013</t>
+  </si>
+  <si>
+    <t>0.519</t>
+  </si>
+  <si>
+    <t>0.782+/-0.005</t>
+  </si>
+  <si>
+    <t>0.506+/-0.032</t>
+  </si>
+  <si>
+    <t>0.05</t>
+  </si>
+  <si>
+    <t>0.846+/-0.002</t>
+  </si>
+  <si>
+    <t>0.687+/-0.02</t>
+  </si>
+  <si>
+    <t>0.684</t>
+  </si>
+  <si>
+    <t>2.679+/-0.051</t>
+  </si>
+  <si>
+    <t>0.89+/-0.001</t>
+  </si>
+  <si>
+    <t>0.813+/-0.0</t>
+  </si>
+  <si>
+    <t>0.845</t>
+  </si>
+  <si>
+    <t>0.913+/-0.004</t>
+  </si>
+  <si>
+    <t>0.36+/-0.048</t>
+  </si>
+  <si>
+    <t>0.368</t>
+  </si>
+  <si>
+    <t>0.862+/-0.002</t>
+  </si>
+  <si>
+    <t>0.31+/-0.037</t>
+  </si>
+  <si>
+    <t>0.952+/-0.001</t>
+  </si>
+  <si>
+    <t>0.707+/-0.017</t>
+  </si>
+  <si>
+    <t>0.687</t>
+  </si>
+  <si>
+    <t>10.998+/-0.353</t>
+  </si>
+  <si>
+    <t>0.733+/-0.006</t>
+  </si>
+  <si>
+    <t>0.725+/-0.0</t>
+  </si>
+  <si>
+    <t>0.755+/-0.006</t>
+  </si>
+  <si>
+    <t>0.281+/-0.021</t>
+  </si>
+  <si>
+    <t>0.4</t>
+  </si>
+  <si>
+    <t>0.691+/-0.013</t>
+  </si>
+  <si>
+    <t>0.534+/-0.044</t>
+  </si>
+  <si>
+    <t>0.007</t>
+  </si>
+  <si>
+    <t>0.814+/-0.003</t>
+  </si>
+  <si>
+    <t>0.71+/-0.023</t>
+  </si>
+  <si>
+    <t>1.34+/-0.046</t>
+  </si>
+  <si>
+    <t>0.723+/-0.0</t>
+  </si>
+  <si>
+    <t>0.723</t>
+  </si>
+  <si>
+    <t>0.871+/-0.006</t>
+  </si>
+  <si>
+    <t>0.651+/-0.0</t>
+  </si>
+  <si>
+    <t>0.728</t>
+  </si>
+  <si>
+    <t>0.874+/-0.011</t>
+  </si>
+  <si>
+    <t>0.372+/-0.025</t>
+  </si>
+  <si>
+    <t>0.629</t>
+  </si>
+  <si>
+    <t>0.867+/-0.007</t>
+  </si>
+  <si>
+    <t>0.377+/-0.029</t>
+  </si>
+  <si>
+    <t>0.043</t>
+  </si>
+  <si>
+    <t>0.945+/-0.003</t>
+  </si>
+  <si>
+    <t>0.607+/-0.018</t>
+  </si>
+  <si>
+    <t>0.628</t>
+  </si>
+  <si>
+    <t>11.338+/-0.132</t>
+  </si>
+  <si>
+    <t>0.691+/-0.003</t>
+  </si>
+  <si>
+    <t>0.622+/-0.0</t>
+  </si>
+  <si>
+    <t>0.722</t>
+  </si>
+  <si>
+    <t>0.696+/-0.003</t>
+  </si>
+  <si>
+    <t>0.357+/-0.026</t>
+  </si>
+  <si>
+    <t>0.485</t>
+  </si>
+  <si>
+    <t>0.677+/-0.004</t>
+  </si>
+  <si>
+    <t>0.457+/-0.041</t>
+  </si>
+  <si>
+    <t>0.062</t>
+  </si>
+  <si>
+    <t>0.762+/-0.002</t>
+  </si>
+  <si>
+    <t>0.606+/-0.029</t>
+  </si>
+  <si>
+    <t>0.611</t>
+  </si>
+  <si>
+    <t>2.229+/-0.034</t>
+  </si>
+  <si>
+    <t>0.811+/-0.003</t>
+  </si>
+  <si>
+    <t>0.695+/-0.0</t>
+  </si>
+  <si>
+    <t>0.727</t>
+  </si>
+  <si>
+    <t>0.884+/-0.007</t>
+  </si>
+  <si>
+    <t>0.414+/-0.026</t>
+  </si>
+  <si>
+    <t>0.542</t>
+  </si>
+  <si>
+    <t>0.717+/-0.005</t>
+  </si>
+  <si>
+    <t>0.243+/-0.023</t>
+  </si>
+  <si>
+    <t>0.087</t>
+  </si>
+  <si>
+    <t>0.886+/-0.001</t>
+  </si>
+  <si>
+    <t>0.608+/-0.02</t>
+  </si>
+  <si>
+    <t>0.613</t>
+  </si>
+  <si>
+    <t>8.794+/-0.103</t>
+  </si>
+  <si>
+    <t>0.682+/-0.004</t>
+  </si>
+  <si>
+    <t>0.582+/-0.0</t>
+  </si>
+  <si>
+    <t>0.668+/-0.007</t>
+  </si>
+  <si>
+    <t>0.344+/-0.015</t>
+  </si>
+  <si>
+    <t>0.721+/-0.013</t>
+  </si>
+  <si>
+    <t>0.559+/-0.027</t>
+  </si>
+  <si>
+    <t>0.01</t>
+  </si>
+  <si>
+    <t>0.755+/-0.003</t>
+  </si>
+  <si>
+    <t>0.607+/-0.02</t>
+  </si>
+  <si>
+    <t>0.617</t>
+  </si>
+  <si>
+    <t>1.139+/-0.025</t>
   </si>
   <si>
     <t>0.692+/-0.0</t>
   </si>
   <si>
-    <t>0.644</t>
-  </si>
-  <si>
-    <t>0.72+/-0.007</t>
-  </si>
-  <si>
-    <t>0.692+/-0.016</t>
-  </si>
-  <si>
-    <t>0.282</t>
-  </si>
-  <si>
-    <t>0.72+/-0.015</t>
-  </si>
-  <si>
-    <t>0.693+/-0.012</t>
-  </si>
-  <si>
-    <t>0.496</t>
-  </si>
-  <si>
-    <t>0.805+/-0.03</t>
-  </si>
-  <si>
-    <t>0.85</t>
-  </si>
-  <si>
-    <t>0.749</t>
-  </si>
-  <si>
-    <t>0.869+/-0.004</t>
-  </si>
-  <si>
-    <t>0.821+/-0.009</t>
-  </si>
-  <si>
-    <t>0.279</t>
-  </si>
-  <si>
-    <t>0.923+/-0.003</t>
-  </si>
-  <si>
-    <t>0.865+/-0.012</t>
-  </si>
-  <si>
-    <t>0.427</t>
-  </si>
-  <si>
-    <t>9.761+/-0.356</t>
-  </si>
-  <si>
-    <t>0.766+/-0.003</t>
-  </si>
-  <si>
-    <t>0.756+/-0.0</t>
-  </si>
-  <si>
-    <t>0.716</t>
-  </si>
-  <si>
-    <t>0.758+/-0.003</t>
-  </si>
-  <si>
-    <t>0.749+/-0.01</t>
-  </si>
-  <si>
-    <t>0.261</t>
-  </si>
-  <si>
-    <t>0.781+/-0.005</t>
-  </si>
-  <si>
-    <t>0.77+/-0.02</t>
-  </si>
-  <si>
-    <t>0.487</t>
-  </si>
-  <si>
-    <t>2.155+/-0.093</t>
-  </si>
-  <si>
-    <t>0.889+/-0.001</t>
-  </si>
-  <si>
-    <t>0.872+/-0.0</t>
-  </si>
-  <si>
-    <t>0.809</t>
-  </si>
-  <si>
-    <t>0.915+/-0.003</t>
-  </si>
-  <si>
-    <t>0.897+/-0.008</t>
-  </si>
-  <si>
-    <t>0.338</t>
-  </si>
-  <si>
-    <t>0.857+/-0.002</t>
-  </si>
-  <si>
-    <t>0.84+/-0.013</t>
-  </si>
-  <si>
-    <t>0.283</t>
-  </si>
-  <si>
-    <t>8.136+/-0.862</t>
-  </si>
-  <si>
-    <t>0.725+/-0.004</t>
-  </si>
-  <si>
-    <t>0.703+/-0.0</t>
-  </si>
-  <si>
-    <t>0.704</t>
+    <t>0.692</t>
+  </si>
+  <si>
+    <t>0.863+/-0.004</t>
+  </si>
+  <si>
+    <t>0.619+/-0.0</t>
+  </si>
+  <si>
+    <t>0.694</t>
+  </si>
+  <si>
+    <t>0.863+/-0.008</t>
+  </si>
+  <si>
+    <t>0.37+/-0.021</t>
+  </si>
+  <si>
+    <t>0.538</t>
+  </si>
+  <si>
+    <t>0.862+/-0.007</t>
+  </si>
+  <si>
+    <t>0.339+/-0.029</t>
+  </si>
+  <si>
+    <t>0.037</t>
+  </si>
+  <si>
+    <t>0.941+/-0.002</t>
+  </si>
+  <si>
+    <t>0.578+/-0.009</t>
+  </si>
+  <si>
+    <t>0.608</t>
+  </si>
+  <si>
+    <t>11.449+/-0.231</t>
+  </si>
+  <si>
+    <t>0.679+/-0.006</t>
+  </si>
+  <si>
+    <t>0.614+/-0.0</t>
+  </si>
+  <si>
+    <t>0.694+/-0.004</t>
+  </si>
+  <si>
+    <t>0.382+/-0.018</t>
+  </si>
+  <si>
+    <t>0.534</t>
+  </si>
+  <si>
+    <t>0.64+/-0.013</t>
+  </si>
+  <si>
+    <t>0.411+/-0.027</t>
+  </si>
+  <si>
+    <t>0.054</t>
   </si>
   <si>
     <t>0.749+/-0.005</t>
   </si>
   <si>
-    <t>0.724+/-0.017</t>
-  </si>
-  <si>
-    <t>0.253</t>
-  </si>
-  <si>
-    <t>0.679+/-0.008</t>
-  </si>
-  <si>
-    <t>0.655+/-0.022</t>
-  </si>
-  <si>
-    <t>0.498</t>
-  </si>
-  <si>
-    <t>0.887+/-0.027</t>
-  </si>
-  <si>
-    <t>0.723</t>
-  </si>
-  <si>
-    <t>0.15+/-0.229</t>
-  </si>
-  <si>
-    <t>0.3+/-0.458</t>
-  </si>
-  <si>
-    <t>0.0+/-0.0</t>
-  </si>
-  <si>
-    <t>0.878+/-0.003</t>
-  </si>
-  <si>
-    <t>0.754+/-0.0</t>
-  </si>
-  <si>
-    <t>0.678</t>
-  </si>
-  <si>
-    <t>0.889+/-0.006</t>
-  </si>
-  <si>
-    <t>0.762+/-0.018</t>
-  </si>
-  <si>
-    <t>0.407</t>
-  </si>
-  <si>
-    <t>0.863+/-0.003</t>
-  </si>
-  <si>
-    <t>0.738+/-0.018</t>
-  </si>
-  <si>
-    <t>0.359</t>
-  </si>
-  <si>
-    <t>7.826+/-0.139</t>
-  </si>
-  <si>
-    <t>0.708+/-0.005</t>
-  </si>
-  <si>
-    <t>0.693+/-0.0</t>
-  </si>
-  <si>
-    <t>0.656</t>
-  </si>
-  <si>
-    <t>0.724+/-0.005</t>
-  </si>
-  <si>
-    <t>0.707+/-0.019</t>
-  </si>
-  <si>
-    <t>0.381</t>
-  </si>
-  <si>
-    <t>0.674+/-0.008</t>
-  </si>
-  <si>
-    <t>0.661+/-0.02</t>
-  </si>
-  <si>
-    <t>0.386</t>
-  </si>
-  <si>
-    <t>1.692+/-0.034</t>
-  </si>
-  <si>
-    <t>0.814+/-0.003</t>
-  </si>
-  <si>
-    <t>0.775+/-0.0</t>
-  </si>
-  <si>
-    <t>0.705</t>
-  </si>
-  <si>
-    <t>0.899+/-0.006</t>
-  </si>
-  <si>
-    <t>0.849+/-0.018</t>
-  </si>
-  <si>
-    <t>0.438</t>
-  </si>
-  <si>
-    <t>0.706+/-0.004</t>
-  </si>
-  <si>
-    <t>0.67+/-0.018</t>
-  </si>
-  <si>
-    <t>0.235</t>
-  </si>
-  <si>
-    <t>6.777+/-0.062</t>
-  </si>
-  <si>
-    <t>0.679+/-0.004</t>
-  </si>
-  <si>
-    <t>0.635+/-0.0</t>
-  </si>
-  <si>
-    <t>0.581</t>
-  </si>
-  <si>
-    <t>0.661+/-0.004</t>
-  </si>
-  <si>
-    <t>0.621+/-0.011</t>
-  </si>
-  <si>
-    <t>0.345</t>
-  </si>
-  <si>
-    <t>0.733+/-0.005</t>
-  </si>
-  <si>
-    <t>0.693+/-0.006</t>
-  </si>
-  <si>
-    <t>0.571</t>
-  </si>
-  <si>
-    <t>0.774+/-0.035</t>
-  </si>
-  <si>
-    <t>0.692</t>
-  </si>
-  <si>
-    <t>0.25+/-0.25</t>
-  </si>
-  <si>
-    <t>0.5+/-0.5</t>
-  </si>
-  <si>
-    <t>0.861+/-0.004</t>
-  </si>
-  <si>
-    <t>0.723+/-0.0</t>
-  </si>
-  <si>
-    <t>0.641</t>
-  </si>
-  <si>
-    <t>0.861+/-0.005</t>
-  </si>
-  <si>
-    <t>0.732+/-0.013</t>
-  </si>
-  <si>
-    <t>0.408</t>
-  </si>
-  <si>
-    <t>0.862+/-0.003</t>
-  </si>
-  <si>
-    <t>0.703+/-0.023</t>
-  </si>
-  <si>
-    <t>0.363</t>
-  </si>
-  <si>
-    <t>8.019+/-0.124</t>
-  </si>
-  <si>
-    <t>0.684+/-0.003</t>
-  </si>
-  <si>
-    <t>0.672+/-0.0</t>
-  </si>
-  <si>
-    <t>0.619</t>
-  </si>
-  <si>
-    <t>0.7+/-0.003</t>
-  </si>
-  <si>
-    <t>0.688+/-0.013</t>
-  </si>
-  <si>
-    <t>0.382</t>
-  </si>
-  <si>
-    <t>0.643+/-0.007</t>
-  </si>
-  <si>
-    <t>0.63+/-0.018</t>
-  </si>
-  <si>
-    <t>1.415+/-0.019</t>
-  </si>
-  <si>
-    <t>0.785+/-0.003</t>
-  </si>
-  <si>
-    <t>0.739+/-0.0</t>
-  </si>
-  <si>
-    <t>0.665</t>
-  </si>
-  <si>
-    <t>0.876+/-0.004</t>
-  </si>
-  <si>
-    <t>0.815+/-0.023</t>
-  </si>
-  <si>
-    <t>0.417</t>
-  </si>
-  <si>
-    <t>0.663+/-0.007</t>
-  </si>
-  <si>
-    <t>0.618+/-0.022</t>
-  </si>
-  <si>
-    <t>0.218</t>
-  </si>
-  <si>
-    <t>5.586+/-0.084</t>
-  </si>
-  <si>
-    <t>0.67+/-0.003</t>
-  </si>
-  <si>
-    <t>0.616+/-0.0</t>
-  </si>
-  <si>
-    <t>0.564</t>
-  </si>
-  <si>
-    <t>0.648+/-0.004</t>
-  </si>
-  <si>
-    <t>0.602+/-0.012</t>
-  </si>
-  <si>
-    <t>0.372</t>
-  </si>
-  <si>
-    <t>0.745+/-0.007</t>
-  </si>
-  <si>
-    <t>0.686+/-0.016</t>
-  </si>
-  <si>
-    <t>0.606</t>
-  </si>
-  <si>
-    <t>0.723+/-0.016</t>
+    <t>0.585+/-0.017</t>
+  </si>
+  <si>
+    <t>0.589</t>
+  </si>
+  <si>
+    <t>1.992+/-0.026</t>
+  </si>
+  <si>
+    <t>0.786+/-0.003</t>
+  </si>
+  <si>
+    <t>0.655+/-0.0</t>
+  </si>
+  <si>
+    <t>0.873+/-0.005</t>
+  </si>
+  <si>
+    <t>0.389+/-0.029</t>
+  </si>
+  <si>
+    <t>0.524</t>
+  </si>
+  <si>
+    <t>0.67+/-0.006</t>
+  </si>
+  <si>
+    <t>0.21+/-0.02</t>
+  </si>
+  <si>
+    <t>0.077</t>
+  </si>
+  <si>
+    <t>0.868+/-0.001</t>
+  </si>
+  <si>
+    <t>0.575+/-0.012</t>
+  </si>
+  <si>
+    <t>0.588</t>
+  </si>
+  <si>
+    <t>7.722+/-0.099</t>
+  </si>
+  <si>
+    <t>0.674+/-0.006</t>
+  </si>
+  <si>
+    <t>0.556+/-0.0</t>
+  </si>
+  <si>
+    <t>0.655+/-0.007</t>
+  </si>
+  <si>
+    <t>0.358+/-0.015</t>
+  </si>
+  <si>
+    <t>0.737+/-0.014</t>
+  </si>
+  <si>
+    <t>0.557+/-0.033</t>
+  </si>
+  <si>
+    <t>0.012</t>
+  </si>
+  <si>
+    <t>0.584+/-0.01</t>
+  </si>
+  <si>
+    <t>0.602</t>
+  </si>
+  <si>
+    <t>1.09+/-0.031</t>
   </si>
 </sst>
 </file>
@@ -932,7 +1052,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -960,19 +1080,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="E2" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F2" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -980,19 +1100,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="E3" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F3" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1000,19 +1120,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>53</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1020,19 +1140,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="F5" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1040,19 +1160,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E6" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="F6" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1060,19 +1180,19 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D7" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E7" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="F7" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1080,19 +1200,19 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="E8" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="F8" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1100,19 +1220,19 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D9" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="E9" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="F9" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1120,19 +1240,19 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D10" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="E10" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="F10" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1140,19 +1260,79 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D11" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="E11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" t="s">
         <v>50</v>
       </c>
-      <c r="F11" t="s">
-        <v>60</v>
+      <c r="E14" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1162,7 +1342,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1190,19 +1370,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="D2" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="E2" t="s">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="F2" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1210,19 +1390,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>74</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="D3" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="E3" t="s">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="F3" t="s">
-        <v>91</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1230,19 +1410,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="C4" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="D4" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="E4" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="F4" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1250,19 +1430,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="D5" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="E5" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="F5" t="s">
-        <v>93</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1270,19 +1450,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="D6" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="E6" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="F6" t="s">
-        <v>94</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1290,19 +1470,19 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="D7" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="E7" t="s">
-        <v>85</v>
+        <v>107</v>
       </c>
       <c r="F7" t="s">
-        <v>95</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1310,19 +1490,19 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="D8" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="E8" t="s">
-        <v>86</v>
+        <v>108</v>
       </c>
       <c r="F8" t="s">
-        <v>96</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1330,19 +1510,19 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="D9" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="E9" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="F9" t="s">
-        <v>97</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1350,19 +1530,19 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="D10" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="E10" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="F10" t="s">
-        <v>98</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1370,19 +1550,79 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="D11" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="E11" t="s">
-        <v>89</v>
+        <v>110</v>
       </c>
       <c r="F11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>86</v>
+      </c>
+      <c r="D12" t="s">
         <v>99</v>
+      </c>
+      <c r="E12" t="s">
+        <v>111</v>
+      </c>
+      <c r="F12" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>87</v>
+      </c>
+      <c r="D13" t="s">
+        <v>100</v>
+      </c>
+      <c r="E13" t="s">
+        <v>112</v>
+      </c>
+      <c r="F13" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>88</v>
+      </c>
+      <c r="D14" t="s">
+        <v>101</v>
+      </c>
+      <c r="E14" t="s">
+        <v>113</v>
+      </c>
+      <c r="F14" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -1392,7 +1632,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1420,19 +1660,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>104</v>
+        <v>127</v>
       </c>
       <c r="D2" t="s">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="E2" t="s">
-        <v>124</v>
+        <v>153</v>
       </c>
       <c r="F2" t="s">
-        <v>134</v>
+        <v>166</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1440,19 +1680,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>125</v>
       </c>
       <c r="C3" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="D3" t="s">
-        <v>115</v>
+        <v>141</v>
       </c>
       <c r="E3" t="s">
-        <v>125</v>
+        <v>154</v>
       </c>
       <c r="F3" t="s">
-        <v>135</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1460,19 +1700,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>100</v>
+        <v>126</v>
       </c>
       <c r="C4" t="s">
-        <v>106</v>
+        <v>129</v>
       </c>
       <c r="D4" t="s">
-        <v>116</v>
+        <v>142</v>
       </c>
       <c r="E4" t="s">
+        <v>155</v>
+      </c>
+      <c r="F4" t="s">
         <v>126</v>
-      </c>
-      <c r="F4" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1480,19 +1720,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>101</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>107</v>
+        <v>130</v>
       </c>
       <c r="D5" t="s">
-        <v>117</v>
+        <v>143</v>
       </c>
       <c r="E5" t="s">
-        <v>127</v>
+        <v>156</v>
       </c>
       <c r="F5" t="s">
-        <v>137</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1500,19 +1740,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>101</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>108</v>
+        <v>131</v>
       </c>
       <c r="D6" t="s">
-        <v>118</v>
+        <v>144</v>
       </c>
       <c r="E6" t="s">
-        <v>128</v>
+        <v>157</v>
       </c>
       <c r="F6" t="s">
-        <v>138</v>
+        <v>169</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1520,19 +1760,19 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>109</v>
+        <v>132</v>
       </c>
       <c r="D7" t="s">
-        <v>119</v>
+        <v>145</v>
       </c>
       <c r="E7" t="s">
-        <v>129</v>
+        <v>158</v>
       </c>
       <c r="F7" t="s">
-        <v>139</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1540,19 +1780,19 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>102</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>110</v>
+        <v>133</v>
       </c>
       <c r="D8" t="s">
-        <v>120</v>
+        <v>146</v>
       </c>
       <c r="E8" t="s">
-        <v>130</v>
+        <v>159</v>
       </c>
       <c r="F8" t="s">
-        <v>140</v>
+        <v>170</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1560,19 +1800,19 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>102</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>111</v>
+        <v>134</v>
       </c>
       <c r="D9" t="s">
-        <v>121</v>
+        <v>147</v>
       </c>
       <c r="E9" t="s">
-        <v>131</v>
+        <v>160</v>
       </c>
       <c r="F9" t="s">
-        <v>141</v>
+        <v>171</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1580,19 +1820,19 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>112</v>
+        <v>135</v>
       </c>
       <c r="D10" t="s">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="E10" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="F10" t="s">
-        <v>142</v>
+        <v>172</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1600,19 +1840,79 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>103</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>113</v>
+        <v>136</v>
       </c>
       <c r="D11" t="s">
-        <v>123</v>
+        <v>149</v>
       </c>
       <c r="E11" t="s">
-        <v>133</v>
+        <v>162</v>
       </c>
       <c r="F11" t="s">
-        <v>143</v>
+        <v>173</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>137</v>
+      </c>
+      <c r="D12" t="s">
+        <v>150</v>
+      </c>
+      <c r="E12" t="s">
+        <v>163</v>
+      </c>
+      <c r="F12" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>138</v>
+      </c>
+      <c r="D13" t="s">
+        <v>151</v>
+      </c>
+      <c r="E13" t="s">
+        <v>164</v>
+      </c>
+      <c r="F13" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>139</v>
+      </c>
+      <c r="D14" t="s">
+        <v>152</v>
+      </c>
+      <c r="E14" t="s">
+        <v>165</v>
+      </c>
+      <c r="F14" t="s">
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -1622,7 +1922,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1650,19 +1950,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>147</v>
+        <v>179</v>
       </c>
       <c r="D2" t="s">
-        <v>157</v>
+        <v>192</v>
       </c>
       <c r="E2" t="s">
-        <v>166</v>
+        <v>204</v>
       </c>
       <c r="F2" t="s">
-        <v>176</v>
+        <v>216</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1670,19 +1970,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>177</v>
       </c>
       <c r="C3" t="s">
-        <v>148</v>
+        <v>180</v>
       </c>
       <c r="D3" t="s">
-        <v>158</v>
+        <v>193</v>
       </c>
       <c r="E3" t="s">
-        <v>167</v>
+        <v>205</v>
       </c>
       <c r="F3" t="s">
-        <v>177</v>
+        <v>217</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1690,16 +1990,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>144</v>
+        <v>178</v>
       </c>
       <c r="C4" t="s">
-        <v>149</v>
+        <v>181</v>
       </c>
       <c r="D4" t="s">
-        <v>159</v>
+        <v>181</v>
       </c>
       <c r="E4" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="F4" t="s">
         <v>178</v>
@@ -1710,19 +2010,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>145</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>150</v>
+        <v>182</v>
       </c>
       <c r="D5" t="s">
-        <v>160</v>
+        <v>194</v>
       </c>
       <c r="E5" t="s">
-        <v>169</v>
+        <v>206</v>
       </c>
       <c r="F5" t="s">
-        <v>179</v>
+        <v>218</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1730,19 +2030,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>145</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>151</v>
+        <v>183</v>
       </c>
       <c r="D6" t="s">
-        <v>161</v>
+        <v>195</v>
       </c>
       <c r="E6" t="s">
-        <v>170</v>
+        <v>207</v>
       </c>
       <c r="F6" t="s">
-        <v>180</v>
+        <v>219</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1750,19 +2050,19 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>152</v>
+        <v>184</v>
       </c>
       <c r="D7" t="s">
-        <v>162</v>
+        <v>196</v>
       </c>
       <c r="E7" t="s">
-        <v>171</v>
+        <v>208</v>
       </c>
       <c r="F7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1770,19 +2070,19 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>146</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>153</v>
+        <v>185</v>
       </c>
       <c r="D8" t="s">
-        <v>163</v>
+        <v>197</v>
       </c>
       <c r="E8" t="s">
-        <v>172</v>
+        <v>209</v>
       </c>
       <c r="F8" t="s">
-        <v>182</v>
+        <v>220</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1790,19 +2090,19 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>146</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>154</v>
+        <v>186</v>
       </c>
       <c r="D9" t="s">
-        <v>164</v>
+        <v>198</v>
       </c>
       <c r="E9" t="s">
-        <v>173</v>
+        <v>210</v>
       </c>
       <c r="F9" t="s">
-        <v>183</v>
+        <v>221</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1810,19 +2110,19 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>155</v>
+        <v>187</v>
       </c>
       <c r="D10" t="s">
-        <v>162</v>
+        <v>199</v>
       </c>
       <c r="E10" t="s">
-        <v>174</v>
+        <v>211</v>
       </c>
       <c r="F10" t="s">
-        <v>184</v>
+        <v>222</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1830,19 +2130,79 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>103</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>156</v>
+        <v>188</v>
       </c>
       <c r="D11" t="s">
-        <v>165</v>
+        <v>200</v>
       </c>
       <c r="E11" t="s">
-        <v>175</v>
+        <v>212</v>
       </c>
       <c r="F11" t="s">
-        <v>185</v>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>189</v>
+      </c>
+      <c r="D12" t="s">
+        <v>201</v>
+      </c>
+      <c r="E12" t="s">
+        <v>213</v>
+      </c>
+      <c r="F12" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>190</v>
+      </c>
+      <c r="D13" t="s">
+        <v>202</v>
+      </c>
+      <c r="E13" t="s">
+        <v>214</v>
+      </c>
+      <c r="F13" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>191</v>
+      </c>
+      <c r="D14" t="s">
+        <v>203</v>
+      </c>
+      <c r="E14" t="s">
+        <v>215</v>
+      </c>
+      <c r="F14" t="s">
+        <v>225</v>
       </c>
     </row>
   </sheetData>
